--- a/medicine/Mort/Processus_de_naissance_et_de_mort/Processus_de_naissance_et_de_mort.xlsx
+++ b/medicine/Mort/Processus_de_naissance_et_de_mort/Processus_de_naissance_et_de_mort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les processus de naissance et de mort sont des cas particuliers de processus de Markov en temps continu où les transitions d'état sont de deux types seulement : les «naissances» où l'état passe de n à n+1 et les morts où l'état passe de n à n-1.
 Ces processus ont de nombreuses applications en dynamique des populations et dans la théorie des files d'attente. Le processus est spécifié par les taux de naissance 
@@ -534,9 +546,11 @@
           <t>Conditions de récurrence et de fugacité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les conditions de la récurrence et de la fugacité ont été établies par Samuel Karlin and James McGregor[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les conditions de la récurrence et de la fugacité ont été établies par Samuel Karlin and James McGregor.
 Un processus de naissance et de mort est récurrent si et seulement si
           ∑
             i
@@ -632,7 +646,7 @@
         ∞
         .
     {\displaystyle \sum _{i=1}^{\infty }\prod _{n=1}^{i}{\frac {\mu _{n}}{\lambda _{n}}}=\infty \quad {\text{et}}\quad \sum _{i=1}^{\infty }\prod _{n=1}^{i}{\frac {\lambda _{n-1}}{\mu _{n}}}=\infty .}
-Les conditions de récurrence, de fugacité, d’ergodicité et de récurrence nulle peuvent être dérivées sous une forme plus explicite[2].
+Les conditions de récurrence, de fugacité, d’ergodicité et de récurrence nulle peuvent être dérivées sous une forme plus explicite.
 Pour les entiers 
         K
         ≥
@@ -828,7 +842,7 @@
               )
         .
     {\displaystyle {\frac {\lambda _{n}}{\mu _{n}}}\leq 1+{\frac {1}{n}}+{\frac {1}{n}}\sum _{k=1}^{K}{\frac {1}{\prod _{j=1}^{k}\ln _{(j)}(n)}}.}
-Des classes plus larges de processus de naissance et de mort, pour lesquels les conditions de récurrence et de fugacité peuvent être établies, peuvent être trouvées dans [3]
+Des classes plus larges de processus de naissance et de mort, pour lesquels les conditions de récurrence et de fugacité peuvent être établies, peuvent être trouvées dans 
 </t>
         </is>
       </c>
@@ -857,7 +871,9 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Considérez la marche aléatoire unidimensionnelle 
           S
@@ -1023,7 +1039,7 @@
             2
         .
     {\displaystyle {\frac {1}{2}}-{\frac {\alpha _{n}}{2}}.}
-Ainsi, la récurrence ou la fugacité de la marche aléatoire est associée à la récurrence ou à la fugacité du processus de naissance et de mort[2].
+Ainsi, la récurrence ou la fugacité de la marche aléatoire est associée à la récurrence ou à la fugacité du processus de naissance et de mort.
 La marche aléatoire est transitoire s’il y en a 
         c
         &gt;
@@ -1169,7 +1185,9 @@
           <t>Le générateur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On suppose que 
           μ
@@ -1390,7 +1408,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le processus de Yule correspond à 
           μ
@@ -1472,7 +1492,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Supposons que 
           λ
@@ -1556,7 +1578,9 @@
           <t>Formule de Karlin et McGregor</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">On définit une suite de polynômes 
           Q
@@ -1714,8 +1738,43 @@
         .
     {\displaystyle P_{i,j}(t)={\frac {\int _{0}^{\infty }e^{-xt}Q_{i}(x)Q_{j}(x)\,d\psi (x)}{\int _{0}^{\infty }Q_{j}(x)^{2}d\psi (x)}}.}
 Cette formule est due à Karlin et McGregor.
-Exemples
-Si 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Processus_de_naissance_et_de_mort</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Processus_de_naissance_et_de_mort</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Formule de Karlin et McGregor</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si 
           λ
             n
         =
@@ -2120,31 +2179,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Processus_de_naissance_et_de_mort</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Processus_de_naissance_et_de_mort</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Processus absorbants</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque 
           λ
@@ -2396,31 +2457,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Processus_de_naissance_et_de_mort</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Processus_de_naissance_et_de_mort</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Méthode des fonctions génératrices</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque les taux de naissance et de mort sont des polynômes en 
         n
@@ -2653,31 +2716,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Processus_de_naissance_et_de_mort</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Processus_de_naissance_et_de_mort</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Quasi-processus de naissance et de mort</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Les quasi-processus de naissance et de mort sont les processus de Markov en temps continu sur un espace d'états discret dont le générateur est tridiagonal par blocs :
         A
